--- a/Collections/СССР/Советские монеты регулярного чекана 1961 - 1991.xlsx
+++ b/Collections/СССР/Советские монеты регулярного чекана 1961 - 1991.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="1 копейка" sheetId="1" r:id="rId1"/>
@@ -708,11 +708,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -817,7 +817,7 @@
         <v>1971</v>
       </c>
       <c r="B12" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -849,7 +849,7 @@
         <v>1975</v>
       </c>
       <c r="B16" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -857,7 +857,7 @@
         <v>1976</v>
       </c>
       <c r="B17" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -865,7 +865,7 @@
         <v>1977</v>
       </c>
       <c r="B18" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -881,7 +881,7 @@
         <v>1979</v>
       </c>
       <c r="B20" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -897,7 +897,7 @@
         <v>1981</v>
       </c>
       <c r="B22" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -913,7 +913,7 @@
         <v>1983</v>
       </c>
       <c r="B24" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -921,7 +921,7 @@
         <v>1984</v>
       </c>
       <c r="B25" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -929,7 +929,7 @@
         <v>1985</v>
       </c>
       <c r="B26" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -937,7 +937,7 @@
         <v>1986</v>
       </c>
       <c r="B27" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -945,7 +945,7 @@
         <v>1987</v>
       </c>
       <c r="B28" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -961,7 +961,7 @@
         <v>1989</v>
       </c>
       <c r="B30" s="5">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -969,7 +969,7 @@
         <v>1990</v>
       </c>
       <c r="B31" s="5">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -977,7 +977,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="5">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4378,7 +4378,7 @@
       </c>
       <c r="B12" s="10">
         <f>SUM('1 копейка'!$B12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="10">
         <f>SUM('2 копейки'!$B12)</f>
@@ -4542,7 +4542,7 @@
       </c>
       <c r="B16" s="10">
         <f>SUM('1 копейка'!$B16)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="10">
         <f>SUM('2 копейки'!$B16)</f>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="B17" s="10">
         <f>SUM('1 копейка'!$B17)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="10">
         <f>SUM('2 копейки'!$B17)</f>
@@ -4624,7 +4624,7 @@
       </c>
       <c r="B18" s="10">
         <f>SUM('1 копейка'!$B18)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="10">
         <f>SUM('2 копейки'!$B18)</f>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="B20" s="10">
         <f>SUM('1 копейка'!$B20)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="10">
         <f>SUM('2 копейки'!$B20)</f>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B22" s="10">
         <f>SUM('1 копейка'!$B22)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="10">
         <f>SUM('2 копейки'!$B22)</f>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="B24" s="10">
         <f>SUM('1 копейка'!$B24)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" s="10">
         <f>SUM('2 копейки'!$B24)</f>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="B25" s="10">
         <f>SUM('1 копейка'!$B25)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="10">
         <f>SUM('2 копейки'!$B25)</f>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="B26" s="10">
         <f>SUM('1 копейка'!$B26)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" s="10">
         <f>SUM('2 копейки'!$B26)</f>
@@ -4993,7 +4993,7 @@
       </c>
       <c r="B27" s="10">
         <f>SUM('1 копейка'!$B27)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="10">
         <f>SUM('2 копейки'!$B27)</f>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="B28" s="10">
         <f>SUM('1 копейка'!$B28)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" s="10">
         <f>SUM('2 копейки'!$B28)</f>
@@ -5116,7 +5116,7 @@
       </c>
       <c r="B30" s="10">
         <f>SUM('1 копейка'!$B30)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C30" s="10">
         <f>SUM('2 копейки'!$B30)</f>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="B31" s="10">
         <f>SUM('1 копейка'!$B31)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C31" s="10">
         <f>SUM('2 копейки'!$B31)</f>
@@ -5198,7 +5198,7 @@
       </c>
       <c r="B32" s="10">
         <f>SUM('1 копейка'!$B32)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C32" s="10">
         <f>SUM('2 копейки'!$B32)</f>
@@ -22300,7 +22300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
